--- a/patient_data/patient_65.xlsx
+++ b/patient_data/patient_65.xlsx
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -909,13 +909,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -986,13 +986,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1140,13 +1140,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2189,19 +2189,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2266,19 +2266,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2343,19 +2343,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
